--- a/mf-intelligence/data/separated_files/sbi/SBI Nifty200 Quality 30 Index Fund/SBI Nifty200 Quality 30 Index Fund_Jan_2026.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Nifty200 Quality 30 Index Fund/SBI Nifty200 Quality 30 Index Fund_Jan_2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1086 +436,840 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>100089</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bharat Electronics Ltd.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INE263A01024</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE263A01024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>378317</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1698.64</v>
+      </c>
       <c r="F2" t="n">
-        <v>378317</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1698.64</v>
-      </c>
-      <c r="H2" t="n">
         <v>5.57</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>100025</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nestle India Ltd.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INE239A01024</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nestle India Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE239A01024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>122287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1629.35</v>
+      </c>
       <c r="F3" t="n">
-        <v>122287</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1629.35</v>
-      </c>
-      <c r="H3" t="n">
         <v>5.35</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>100099</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Ltd.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INE030A01027</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE030A01027</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>66874</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1586.92</v>
+      </c>
       <c r="F4" t="n">
-        <v>66874</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1586.92</v>
-      </c>
-      <c r="H4" t="n">
         <v>5.21</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>100037</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HCL Technologies Ltd.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INE860A01027</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HCL Technologies Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE860A01027</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>91397</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1549.73</v>
+      </c>
       <c r="F5" t="n">
-        <v>91397</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1549.73</v>
-      </c>
-      <c r="H5" t="n">
         <v>5.08</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>100003</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Infosys Ltd.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INE009A01021</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Infosys Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE009A01021</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>93971</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1542.06</v>
+      </c>
       <c r="F6" t="n">
-        <v>93971</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1542.06</v>
-      </c>
-      <c r="H6" t="n">
         <v>5.06</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>100032</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Ltd.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INE467B01029</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE467B01029</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>47442</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1482.04</v>
+      </c>
       <c r="F7" t="n">
-        <v>47442</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1482.04</v>
-      </c>
-      <c r="H7" t="n">
         <v>4.86</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>100126</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Britannia Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INE216A01030</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Britannia Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE216A01030</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>23057</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1351.26</v>
+      </c>
       <c r="F8" t="n">
-        <v>23057</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1351.26</v>
-      </c>
-      <c r="H8" t="n">
         <v>4.43</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>100097</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Coal India Ltd.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INE522F01014</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Coal India Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE522F01014</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>298032</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1313.58</v>
+      </c>
       <c r="F9" t="n">
-        <v>298032</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1313.58</v>
-      </c>
-      <c r="H9" t="n">
         <v>4.31</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>100019</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ITC Ltd.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INE154A01025</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ITC Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE154A01025</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>385059</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1240.47</v>
+      </c>
       <c r="F10" t="n">
-        <v>385059</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1240.47</v>
-      </c>
-      <c r="H10" t="n">
         <v>4.07</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>100154</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colgate Palmolive (India) Ltd.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INE259A01022</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Colgate Palmolive (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE259A01022</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Personal Products</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>58211</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1230.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>58211</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1230.7</v>
-      </c>
-      <c r="H11" t="n">
         <v>4.04</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
-        <v>100039</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bajaj Auto Ltd.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INE917I01010</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bajaj Auto Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE917I01010</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>12273</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1177.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>12273</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1177.9</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.86</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>100773</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hindustan Aeronautics Ltd.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INE066F01020</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hindustan Aeronautics Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE066F01020</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>23599</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1090.13</v>
+      </c>
       <c r="F13" t="n">
-        <v>23599</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1090.13</v>
-      </c>
-      <c r="H13" t="n">
         <v>3.58</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
-        <v>100173</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Asian Paints Ltd.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INE021A01026</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Asian Paints Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE021A01026</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>42057</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1021.27</v>
+      </c>
       <c r="F14" t="n">
-        <v>42057</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1021.27</v>
-      </c>
-      <c r="H14" t="n">
         <v>3.35</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
-        <v>100179</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hero MotoCorp Ltd.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INE158A01026</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hero MotoCorp Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE158A01026</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>17796</v>
+      </c>
+      <c r="E15" t="n">
+        <v>984.83</v>
+      </c>
       <c r="F15" t="n">
-        <v>17796</v>
-      </c>
-      <c r="G15" t="n">
-        <v>984.83</v>
-      </c>
-      <c r="H15" t="n">
         <v>3.23</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>100677</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dixon Technologies (India) Ltd.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INE935N01020</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dixon Technologies (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE935N01020</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>8934</v>
+      </c>
+      <c r="E16" t="n">
+        <v>933.25</v>
+      </c>
       <c r="F16" t="n">
-        <v>8934</v>
-      </c>
-      <c r="G16" t="n">
-        <v>933.25</v>
-      </c>
-      <c r="H16" t="n">
         <v>3.06</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="n">
-        <v>100814</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HDFC Asset Management Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INE127D01025</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HDFC Asset Management Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE127D01025</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>36867</v>
+      </c>
+      <c r="E17" t="n">
+        <v>927.46</v>
+      </c>
       <c r="F17" t="n">
-        <v>36867</v>
-      </c>
-      <c r="G17" t="n">
-        <v>927.46</v>
-      </c>
-      <c r="H17" t="n">
         <v>3.04</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>100225</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hindustan Zinc Ltd.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INE267A01025</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hindustan Zinc Ltd.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE267A01025</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>144174</v>
+      </c>
+      <c r="E18" t="n">
+        <v>906.13</v>
+      </c>
       <c r="F18" t="n">
-        <v>144174</v>
-      </c>
-      <c r="G18" t="n">
-        <v>906.13</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.97</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="n">
-        <v>100026</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Persistent Systems Ltd.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INE262H01021</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Persistent Systems Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE262H01021</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>14712</v>
+      </c>
+      <c r="E19" t="n">
+        <v>887.87</v>
+      </c>
       <c r="F19" t="n">
-        <v>14712</v>
-      </c>
-      <c r="G19" t="n">
-        <v>887.87</v>
-      </c>
-      <c r="H19" t="n">
         <v>2.91</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
-        <v>100105</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marico Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INE196A01026</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Marico Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE196A01026</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>121010</v>
+      </c>
+      <c r="E20" t="n">
+        <v>883.13</v>
+      </c>
       <c r="F20" t="n">
-        <v>121010</v>
-      </c>
-      <c r="G20" t="n">
-        <v>883.13</v>
-      </c>
-      <c r="H20" t="n">
         <v>2.9</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
-        <v>100161</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cummins India Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INE298A01020</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cummins India Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE298A01020</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>20942</v>
+      </c>
+      <c r="E21" t="n">
+        <v>861.24</v>
+      </c>
       <c r="F21" t="n">
-        <v>20942</v>
-      </c>
-      <c r="G21" t="n">
-        <v>861.24</v>
-      </c>
-      <c r="H21" t="n">
         <v>2.83</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>100447</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LTIMindtree Ltd.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INE214T01019</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LTIMindtree Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE214T01019</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>13215</v>
+      </c>
+      <c r="E22" t="n">
+        <v>789.53</v>
+      </c>
       <c r="F22" t="n">
-        <v>13215</v>
-      </c>
-      <c r="G22" t="n">
-        <v>789.53</v>
-      </c>
-      <c r="H22" t="n">
         <v>2.59</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>100027</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pidilite Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INE318A01026</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pidilite Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE318A01026</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>52223</v>
+      </c>
+      <c r="E23" t="n">
+        <v>747.36</v>
+      </c>
       <c r="F23" t="n">
-        <v>52223</v>
-      </c>
-      <c r="G23" t="n">
-        <v>747.36</v>
-      </c>
-      <c r="H23" t="n">
         <v>2.45</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="n">
-        <v>100200</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Page Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INE761H01022</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Page Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE761H01022</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>2112</v>
+      </c>
+      <c r="E24" t="n">
+        <v>696.85</v>
+      </c>
       <c r="F24" t="n">
-        <v>2112</v>
-      </c>
-      <c r="G24" t="n">
-        <v>696.85</v>
-      </c>
-      <c r="H24" t="n">
         <v>2.29</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
-        <v>100896</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Polycab India Ltd.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INE455K01017</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Polycab India Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE455K01017</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>9499</v>
+      </c>
+      <c r="E25" t="n">
+        <v>666.21</v>
+      </c>
       <c r="F25" t="n">
-        <v>9499</v>
-      </c>
-      <c r="G25" t="n">
-        <v>666.21</v>
-      </c>
-      <c r="H25" t="n">
         <v>2.19</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>100945</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Indian Railway Catering &amp; Tourism Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INE335Y01020</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Indian Railway Catering &amp; Tourism Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE335Y01020</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Leisure Services</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>92127</v>
+      </c>
+      <c r="E26" t="n">
+        <v>574</v>
+      </c>
       <c r="F26" t="n">
-        <v>92127</v>
-      </c>
-      <c r="G26" t="n">
-        <v>574</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.88</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="n">
-        <v>101184</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mazagon Dock Shipbuilders Ltd.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INE249Z01020</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mazagon Dock Shipbuilders Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE249Z01020</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>22037</v>
+      </c>
+      <c r="E27" t="n">
+        <v>566.99</v>
+      </c>
       <c r="F27" t="n">
-        <v>22037</v>
-      </c>
-      <c r="G27" t="n">
-        <v>566.99</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.86</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>100273</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Havells India Ltd.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INE176B01034</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Havells India Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE176B01034</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>44082</v>
+      </c>
+      <c r="E28" t="n">
+        <v>566.45</v>
+      </c>
       <c r="F28" t="n">
-        <v>44082</v>
-      </c>
-      <c r="G28" t="n">
-        <v>566.45</v>
-      </c>
-      <c r="H28" t="n">
         <v>1.86</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>100133</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oracle Financial Services Software Ltd.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INE881D01027</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oracle Financial Services Software Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE881D01027</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>7006</v>
+      </c>
+      <c r="E29" t="n">
+        <v>543.67</v>
+      </c>
       <c r="F29" t="n">
-        <v>7006</v>
-      </c>
-      <c r="G29" t="n">
-        <v>543.67</v>
-      </c>
-      <c r="H29" t="n">
         <v>1.78</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="n">
-        <v>100117</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tata Elxsi Ltd.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INE670A01012</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tata Elxsi Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE670A01012</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>10004</v>
+      </c>
+      <c r="E30" t="n">
+        <v>532.5599999999999</v>
+      </c>
       <c r="F30" t="n">
-        <v>10004</v>
-      </c>
-      <c r="G30" t="n">
-        <v>532.5599999999999</v>
-      </c>
-      <c r="H30" t="n">
         <v>1.75</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="n">
-        <v>100872</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KPIT Technologies Ltd.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INE04I401011</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KPIT Technologies Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE04I401011</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>43920</v>
+      </c>
+      <c r="E31" t="n">
+        <v>457.6</v>
+      </c>
       <c r="F31" t="n">
-        <v>43920</v>
-      </c>
-      <c r="G31" t="n">
-        <v>457.6</v>
-      </c>
-      <c r="H31" t="n">
         <v>1.5</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="n">
-        <v>102727</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kwality Walls India Ltd.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INE2KCE01013</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kwality Walls India Ltd.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INE2KCE01013</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>66391</v>
+      </c>
+      <c r="E32" t="n">
+        <v>26.69</v>
+      </c>
       <c r="F32" t="n">
-        <v>66391</v>
-      </c>
-      <c r="G32" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="H32" t="n">
         <v>0.09</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>A**</t>
-        </is>
       </c>
     </row>
   </sheetData>
